--- a/results/cv_results/individual_metrics_events_fixed.xlsx
+++ b/results/cv_results/individual_metrics_events_fixed.xlsx
@@ -205,7 +205,7 @@
     <t>swh_max_swan &gt; 2.195</t>
   </si>
   <si>
-    <t>swh_max_swan &gt; t1 AND anom_swh_p80_swan &gt; t2</t>
+    <t>swh_max_swan &gt; t1 AND anom_swh_p80_waverys &gt; t2</t>
   </si>
   <si>
     <t>duration_intensity_p60_waverys &gt; 13.929166666666664</t>
@@ -238,7 +238,7 @@
     <t>(np.float64(2.0149999), np.float64(1.94670002))</t>
   </si>
   <si>
-    <t>(np.float64(1.9166666), np.float64(0.1850487195833333))</t>
+    <t>(np.float64(1.9166666), np.float64(0.1887734374999999))</t>
   </si>
 </sst>
 </file>
@@ -720,10 +720,10 @@
         <v>0.6206896551724138</v>
       </c>
       <c r="N2">
-        <v>121373.7175</v>
+        <v>797999.3275</v>
       </c>
       <c r="O2">
-        <v>213660</v>
+        <v>1008950</v>
       </c>
       <c r="R2">
         <v>5.67</v>
@@ -1886,13 +1886,37 @@
         <v>3237740.665735714</v>
       </c>
       <c r="O21">
-        <v>4674081.028571428</v>
+        <v>4263519.857142854</v>
+      </c>
+      <c r="P21">
+        <v>102.51975</v>
+      </c>
+      <c r="Q21">
+        <v>135</v>
       </c>
       <c r="R21">
         <v>81.20990204081635</v>
       </c>
       <c r="S21">
         <v>1218148.530612245</v>
+      </c>
+      <c r="T21">
+        <v>83.944</v>
+      </c>
+      <c r="U21">
+        <v>114</v>
+      </c>
+      <c r="V21">
+        <v>18.57575</v>
+      </c>
+      <c r="W21">
+        <v>35</v>
+      </c>
+      <c r="X21">
+        <v>19.37175</v>
+      </c>
+      <c r="Y21">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2051,13 +2075,37 @@
         <v>237144.8314285714</v>
       </c>
       <c r="O24">
-        <v>375488.5714285715</v>
+        <v>322602.8571428572</v>
+      </c>
+      <c r="P24">
+        <v>89.682</v>
+      </c>
+      <c r="Q24">
+        <v>122</v>
       </c>
       <c r="R24">
         <v>8.789102040816328</v>
       </c>
       <c r="S24">
         <v>131836.5306122449</v>
+      </c>
+      <c r="T24">
+        <v>57.20575</v>
+      </c>
+      <c r="U24">
+        <v>81</v>
+      </c>
+      <c r="V24">
+        <v>32.47625</v>
+      </c>
+      <c r="W24">
+        <v>53</v>
+      </c>
+      <c r="X24">
+        <v>17.10175</v>
+      </c>
+      <c r="Y24">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2216,13 +2264,37 @@
         <v>283425.2629285714</v>
       </c>
       <c r="O27">
-        <v>453918.4285714286</v>
+        <v>369686.1428571429</v>
+      </c>
+      <c r="P27">
+        <v>121.133</v>
+      </c>
+      <c r="Q27">
+        <v>158</v>
       </c>
       <c r="R27">
         <v>13.81587755102041</v>
       </c>
       <c r="S27">
         <v>207238.1632653061</v>
+      </c>
+      <c r="T27">
+        <v>54.771</v>
+      </c>
+      <c r="U27">
+        <v>77</v>
+      </c>
+      <c r="V27">
+        <v>66.36199999999999</v>
+      </c>
+      <c r="W27">
+        <v>96</v>
+      </c>
+      <c r="X27">
+        <v>22.11075</v>
+      </c>
+      <c r="Y27">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2354,40 +2426,64 @@
         <v>74</v>
       </c>
       <c r="F30">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G30">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H30">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="I30">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J30">
-        <v>0.5433287482806052</v>
+        <v>0.5516304347826086</v>
       </c>
       <c r="K30">
-        <v>0.7790927021696252</v>
+        <v>0.8007889546351085</v>
       </c>
       <c r="L30">
-        <v>0.8266302225693088</v>
+        <v>0.8317063647012886</v>
       </c>
       <c r="M30">
-        <v>0.640194489465154</v>
+        <v>0.6532582461786002</v>
       </c>
       <c r="N30">
-        <v>118713.7737142857</v>
+        <v>119993.4537142857</v>
       </c>
       <c r="O30">
-        <v>182528</v>
+        <v>158719.9999999999</v>
+      </c>
+      <c r="P30">
+        <v>105.841</v>
+      </c>
+      <c r="Q30">
+        <v>140</v>
       </c>
       <c r="R30">
         <v>5.474220408163264</v>
       </c>
       <c r="S30">
         <v>82113.30612244896</v>
+      </c>
+      <c r="T30">
+        <v>47.75075</v>
+      </c>
+      <c r="U30">
+        <v>67</v>
+      </c>
+      <c r="V30">
+        <v>58.09025</v>
+      </c>
+      <c r="W30">
+        <v>85</v>
+      </c>
+      <c r="X30">
+        <v>14.265</v>
+      </c>
+      <c r="Y30">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:25">

--- a/results/cv_results/individual_metrics_events_fixed.xlsx
+++ b/results/cv_results/individual_metrics_events_fixed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
   <si>
     <t>run_dir</t>
   </si>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>p99_fn</t>
+  </si>
+  <si>
+    <t>mean_tp_cost</t>
+  </si>
+  <si>
+    <t>mean_fp_cost</t>
+  </si>
+  <si>
+    <t>mean_fn_cost</t>
+  </si>
+  <si>
+    <t>p99_tp_cost</t>
+  </si>
+  <si>
+    <t>p99_fp_cost</t>
+  </si>
+  <si>
+    <t>p99_fn_cost</t>
   </si>
   <si>
     <t>run_g1</t>
@@ -596,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,19 +696,37 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0.08899999999999994</v>
@@ -720,10 +756,16 @@
         <v>0.6206896551724138</v>
       </c>
       <c r="N2">
-        <v>797999.3275</v>
+        <v>370538.7525</v>
       </c>
       <c r="O2">
-        <v>1008950</v>
+        <v>453600</v>
+      </c>
+      <c r="P2">
+        <v>44.85825</v>
+      </c>
+      <c r="Q2">
+        <v>55</v>
       </c>
       <c r="R2">
         <v>5.67</v>
@@ -731,22 +773,58 @@
       <c r="S2">
         <v>85050</v>
       </c>
+      <c r="T2">
+        <v>29</v>
+      </c>
+      <c r="U2">
+        <v>29</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>11340</v>
+      </c>
+      <c r="AA2">
+        <v>12513.10344827586</v>
+      </c>
+      <c r="AB2">
+        <v>18427.5</v>
+      </c>
+      <c r="AC2">
+        <v>11340</v>
+      </c>
+      <c r="AD2">
+        <v>39690</v>
+      </c>
+      <c r="AE2">
+        <v>34020</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -808,19 +886,37 @@
       <c r="Y3">
         <v>10</v>
       </c>
+      <c r="Z3">
+        <v>36660.495</v>
+      </c>
+      <c r="AA3">
+        <v>66834.035</v>
+      </c>
+      <c r="AB3">
+        <v>36150.085</v>
+      </c>
+      <c r="AC3">
+        <v>130570</v>
+      </c>
+      <c r="AD3">
+        <v>166180</v>
+      </c>
+      <c r="AE3">
+        <v>118700</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>0.64</v>
@@ -867,19 +963,37 @@
       <c r="S4">
         <v>62741.42857142857</v>
       </c>
+      <c r="Z4">
+        <v>634960</v>
+      </c>
+      <c r="AA4">
+        <v>2436619</v>
+      </c>
+      <c r="AB4">
+        <v>605254</v>
+      </c>
+      <c r="AC4">
+        <v>952440</v>
+      </c>
+      <c r="AD4">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE4">
+        <v>907881</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0.3135999999999998</v>
@@ -909,10 +1023,16 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="N5">
-        <v>783034.1909961908</v>
+        <v>1583601.157583333</v>
       </c>
       <c r="O5">
-        <v>990028.8380952384</v>
+        <v>1938586.666666666</v>
+      </c>
+      <c r="P5">
+        <v>44.85825</v>
+      </c>
+      <c r="Q5">
+        <v>55</v>
       </c>
       <c r="R5">
         <v>79.15895555555555</v>
@@ -920,22 +1040,58 @@
       <c r="S5">
         <v>1187384.333333333</v>
       </c>
+      <c r="T5">
+        <v>18</v>
+      </c>
+      <c r="U5">
+        <v>18</v>
+      </c>
+      <c r="V5">
+        <v>12</v>
+      </c>
+      <c r="W5">
+        <v>12</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>72697</v>
+      </c>
+      <c r="AA5">
+        <v>40387.22222222222</v>
+      </c>
+      <c r="AB5">
+        <v>84813.16666666666</v>
+      </c>
+      <c r="AC5">
+        <v>169626.3333333333</v>
+      </c>
+      <c r="AD5">
+        <v>96929.33333333334</v>
+      </c>
+      <c r="AE5">
+        <v>145394</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>425</v>
@@ -997,19 +1153,37 @@
       <c r="Y6">
         <v>33</v>
       </c>
+      <c r="Z6">
+        <v>706015.7710914287</v>
+      </c>
+      <c r="AA6">
+        <v>542154.3509885715</v>
+      </c>
+      <c r="AB6">
+        <v>218307.1824990477</v>
+      </c>
+      <c r="AC6">
+        <v>1048382.302552379</v>
+      </c>
+      <c r="AD6">
+        <v>780375.6723809527</v>
+      </c>
+      <c r="AE6">
+        <v>384364.1371428573</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>1.9399999</v>
@@ -1056,19 +1230,37 @@
       <c r="S7">
         <v>931791.8476190477</v>
       </c>
+      <c r="Z7">
+        <v>302415.9559942858</v>
+      </c>
+      <c r="AA7">
+        <v>26489.09511809525</v>
+      </c>
+      <c r="AB7">
+        <v>76412.75520380953</v>
+      </c>
+      <c r="AC7">
+        <v>559075.1085714287</v>
+      </c>
+      <c r="AD7">
+        <v>128237.8530285687</v>
+      </c>
+      <c r="AE7">
+        <v>232947.9619047619</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0.04924999999999996</v>
@@ -1098,10 +1290,16 @@
         <v>0.5142857142857143</v>
       </c>
       <c r="N8">
-        <v>366781.0346742858</v>
+        <v>174221169.7415666</v>
       </c>
       <c r="O8">
-        <v>580276.2857142859</v>
+        <v>213275189.3333333</v>
+      </c>
+      <c r="P8">
+        <v>44.85825</v>
+      </c>
+      <c r="Q8">
+        <v>55</v>
       </c>
       <c r="R8">
         <v>3021.398515555556</v>
@@ -1109,22 +1307,58 @@
       <c r="S8">
         <v>45320977.73333333</v>
       </c>
+      <c r="T8">
+        <v>28</v>
+      </c>
+      <c r="U8">
+        <v>28</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>5331879.733333334</v>
+      </c>
+      <c r="AA8">
+        <v>5903152.561904761</v>
+      </c>
+      <c r="AB8">
+        <v>7331334.633333331</v>
+      </c>
+      <c r="AC8">
+        <v>5331879.733333333</v>
+      </c>
+      <c r="AD8">
+        <v>18661579.06666666</v>
+      </c>
+      <c r="AE8">
+        <v>15995639.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>19</v>
@@ -1186,19 +1420,37 @@
       <c r="Y9">
         <v>13</v>
       </c>
+      <c r="Z9">
+        <v>55665.90408857143</v>
+      </c>
+      <c r="AA9">
+        <v>186605.24796</v>
+      </c>
+      <c r="AB9">
+        <v>107507.7874542858</v>
+      </c>
+      <c r="AC9">
+        <v>208899.4628571429</v>
+      </c>
+      <c r="AD9">
+        <v>417798.9257142858</v>
+      </c>
+      <c r="AE9">
+        <v>301743.6685714286</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>-0.0271474840559687</v>
@@ -1245,19 +1497,37 @@
       <c r="S10">
         <v>175740.8179591837</v>
       </c>
+      <c r="Z10">
+        <v>634960</v>
+      </c>
+      <c r="AA10">
+        <v>2436619</v>
+      </c>
+      <c r="AB10">
+        <v>605254</v>
+      </c>
+      <c r="AC10">
+        <v>952440</v>
+      </c>
+      <c r="AD10">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE10">
+        <v>907881</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0.05819999999999996</v>
@@ -1287,10 +1557,16 @@
         <v>0.1481481481481481</v>
       </c>
       <c r="N11">
-        <v>1689175.314783674</v>
+        <v>1943457.1572</v>
       </c>
       <c r="O11">
-        <v>2925893.681632654</v>
+        <v>2678270.399999999</v>
+      </c>
+      <c r="P11">
+        <v>18.07725</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
       </c>
       <c r="R11">
         <v>39.67808</v>
@@ -1298,22 +1574,58 @@
       <c r="S11">
         <v>595171.2000000001</v>
       </c>
+      <c r="T11">
+        <v>11</v>
+      </c>
+      <c r="U11">
+        <v>11</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>148792.8</v>
+      </c>
+      <c r="AA11">
+        <v>169082.7272727273</v>
+      </c>
+      <c r="AB11">
+        <v>185991.0000000001</v>
+      </c>
+      <c r="AC11">
+        <v>148792.8</v>
+      </c>
+      <c r="AD11">
+        <v>297585.6</v>
+      </c>
+      <c r="AE11">
+        <v>223189.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1340,10 +1652,16 @@
         <v>0.3508771929824561</v>
       </c>
       <c r="N12">
-        <v>1711241.429632653</v>
+        <v>1693035.868946939</v>
       </c>
       <c r="O12">
-        <v>4388840.522448979</v>
+        <v>3576092.277551021</v>
+      </c>
+      <c r="P12">
+        <v>10.4155</v>
+      </c>
+      <c r="Q12">
+        <v>22</v>
       </c>
       <c r="R12">
         <v>77.40459475218658</v>
@@ -1351,19 +1669,55 @@
       <c r="S12">
         <v>1161068.921282799</v>
       </c>
+      <c r="T12">
+        <v>7.138</v>
+      </c>
+      <c r="U12">
+        <v>16</v>
+      </c>
+      <c r="V12">
+        <v>3.2775</v>
+      </c>
+      <c r="W12">
+        <v>11</v>
+      </c>
+      <c r="X12">
+        <v>4.52225</v>
+      </c>
+      <c r="Y12">
+        <v>13</v>
+      </c>
+      <c r="Z12">
+        <v>532756.4745306122</v>
+      </c>
+      <c r="AA12">
+        <v>1160279.394416327</v>
+      </c>
+      <c r="AB12">
+        <v>735090.1500979593</v>
+      </c>
+      <c r="AC12">
+        <v>1788046.13877551</v>
+      </c>
+      <c r="AD12">
+        <v>2600794.38367347</v>
+      </c>
+      <c r="AE12">
+        <v>2113145.436734694</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>0.3175288322364742</v>
@@ -1410,19 +1764,37 @@
       <c r="S13">
         <v>1346839.948688047</v>
       </c>
+      <c r="Z13">
+        <v>634960</v>
+      </c>
+      <c r="AA13">
+        <v>2436619</v>
+      </c>
+      <c r="AB13">
+        <v>605254</v>
+      </c>
+      <c r="AC13">
+        <v>952440</v>
+      </c>
+      <c r="AD13">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE13">
+        <v>907881</v>
+      </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0.3937999999999997</v>
@@ -1452,10 +1824,16 @@
         <v>0.2500000000000001</v>
       </c>
       <c r="N14">
-        <v>746934.1</v>
+        <v>8408463.166666668</v>
       </c>
       <c r="O14">
-        <v>1196800</v>
+        <v>10293333.33333333</v>
+      </c>
+      <c r="P14">
+        <v>44.85825</v>
+      </c>
+      <c r="Q14">
+        <v>55</v>
       </c>
       <c r="R14">
         <v>188.7111111111111</v>
@@ -1463,22 +1841,58 @@
       <c r="S14">
         <v>2830666.666666667</v>
       </c>
+      <c r="T14">
+        <v>23</v>
+      </c>
+      <c r="U14">
+        <v>23</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>330857.1428571428</v>
+      </c>
+      <c r="AA14">
+        <v>268521.7391304348</v>
+      </c>
+      <c r="AB14">
+        <v>386000</v>
+      </c>
+      <c r="AC14">
+        <v>386000</v>
+      </c>
+      <c r="AD14">
+        <v>900666.6666666667</v>
+      </c>
+      <c r="AE14">
+        <v>386000</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>249</v>
@@ -1540,19 +1954,37 @@
       <c r="Y15">
         <v>34</v>
       </c>
+      <c r="Z15">
+        <v>2671463.3</v>
+      </c>
+      <c r="AA15">
+        <v>2879033.3</v>
+      </c>
+      <c r="AB15">
+        <v>1437038.9</v>
+      </c>
+      <c r="AC15">
+        <v>4488000</v>
+      </c>
+      <c r="AD15">
+        <v>4712400</v>
+      </c>
+      <c r="AE15">
+        <v>2543200</v>
+      </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>1.514249999999999</v>
@@ -1599,19 +2031,37 @@
       <c r="S16">
         <v>4103314.285714286</v>
       </c>
+      <c r="Z16">
+        <v>634960</v>
+      </c>
+      <c r="AA16">
+        <v>2436619</v>
+      </c>
+      <c r="AB16">
+        <v>605254</v>
+      </c>
+      <c r="AC16">
+        <v>952440</v>
+      </c>
+      <c r="AD16">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE16">
+        <v>907881</v>
+      </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>0.08424999999999994</v>
@@ -1641,10 +2091,16 @@
         <v>0.4423076923076923</v>
       </c>
       <c r="N17">
-        <v>2114743.914552199</v>
+        <v>174221169.7415666</v>
       </c>
       <c r="O17">
-        <v>2683635.670329671</v>
+        <v>213275189.3333333</v>
+      </c>
+      <c r="P17">
+        <v>44.85825</v>
+      </c>
+      <c r="Q17">
+        <v>55</v>
       </c>
       <c r="R17">
         <v>6575.985004444442</v>
@@ -1652,22 +2108,58 @@
       <c r="S17">
         <v>98639775.06666663</v>
       </c>
+      <c r="T17">
+        <v>21</v>
+      </c>
+      <c r="U17">
+        <v>21</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>9</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>6220526.355555557</v>
+      </c>
+      <c r="AA17">
+        <v>5712728.285714285</v>
+      </c>
+      <c r="AB17">
+        <v>7464631.626666666</v>
+      </c>
+      <c r="AC17">
+        <v>7997819.6</v>
+      </c>
+      <c r="AD17">
+        <v>18661579.06666666</v>
+      </c>
+      <c r="AE17">
+        <v>13329699.33333333</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F18">
         <v>73</v>
@@ -1729,19 +2221,37 @@
       <c r="Y18">
         <v>36</v>
       </c>
+      <c r="Z18">
+        <v>328511.3316208792</v>
+      </c>
+      <c r="AA18">
+        <v>242291.734445055</v>
+      </c>
+      <c r="AB18">
+        <v>623360.1983653847</v>
+      </c>
+      <c r="AC18">
+        <v>748921.5824175825</v>
+      </c>
+      <c r="AD18">
+        <v>530486.1208791209</v>
+      </c>
+      <c r="AE18">
+        <v>1123382.373626374</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>2.26457132</v>
@@ -1788,19 +2298,37 @@
       <c r="S19">
         <v>949525.5777080065</v>
       </c>
+      <c r="Z19">
+        <v>634960</v>
+      </c>
+      <c r="AA19">
+        <v>2436619</v>
+      </c>
+      <c r="AB19">
+        <v>605254</v>
+      </c>
+      <c r="AC19">
+        <v>952440</v>
+      </c>
+      <c r="AD19">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE19">
+        <v>907881</v>
+      </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>0.1117999999999999</v>
@@ -1830,10 +2358,16 @@
         <v>0.288135593220339</v>
       </c>
       <c r="N20">
-        <v>2595686.156878571</v>
+        <v>5529719.062</v>
       </c>
       <c r="O20">
-        <v>3221326.114285714</v>
+        <v>6769280</v>
+      </c>
+      <c r="P20">
+        <v>44.85825</v>
+      </c>
+      <c r="Q20">
+        <v>55</v>
       </c>
       <c r="R20">
         <v>208.7194666666667</v>
@@ -1841,22 +2375,58 @@
       <c r="S20">
         <v>3130792</v>
       </c>
+      <c r="T20">
+        <v>23</v>
+      </c>
+      <c r="U20">
+        <v>23</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="W20">
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>205496</v>
+      </c>
+      <c r="AA20">
+        <v>180268.8695652173</v>
+      </c>
+      <c r="AB20">
+        <v>270771.2</v>
+      </c>
+      <c r="AC20">
+        <v>253848</v>
+      </c>
+      <c r="AD20">
+        <v>592312</v>
+      </c>
+      <c r="AE20">
+        <v>423080</v>
+      </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F21">
         <v>133</v>
@@ -1918,19 +2488,37 @@
       <c r="Y21">
         <v>38</v>
       </c>
+      <c r="Z21">
+        <v>586652.4369357142</v>
+      </c>
+      <c r="AA21">
+        <v>2651088.2288</v>
+      </c>
+      <c r="AB21">
+        <v>611791.4132785716</v>
+      </c>
+      <c r="AC21">
+        <v>1105357</v>
+      </c>
+      <c r="AD21">
+        <v>3600305.657142856</v>
+      </c>
+      <c r="AE21">
+        <v>1200101.885714286</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0.32435546875</v>
@@ -1977,19 +2565,37 @@
       <c r="S22">
         <v>1218148.530612245</v>
       </c>
+      <c r="Z22">
+        <v>634960</v>
+      </c>
+      <c r="AA22">
+        <v>2436619</v>
+      </c>
+      <c r="AB22">
+        <v>605254</v>
+      </c>
+      <c r="AC22">
+        <v>952440</v>
+      </c>
+      <c r="AD22">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE22">
+        <v>907881</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0.1581999999999999</v>
@@ -2019,10 +2625,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="N23">
-        <v>283465.4453571428</v>
+        <v>2707579.598625</v>
       </c>
       <c r="O23">
-        <v>338468.5714285714</v>
+        <v>3314520</v>
+      </c>
+      <c r="P23">
+        <v>44.85825</v>
+      </c>
+      <c r="Q23">
+        <v>55</v>
       </c>
       <c r="R23">
         <v>85.6251</v>
@@ -2030,22 +2642,58 @@
       <c r="S23">
         <v>1284376.5</v>
       </c>
+      <c r="T23">
+        <v>20</v>
+      </c>
+      <c r="U23">
+        <v>20</v>
+      </c>
+      <c r="V23">
+        <v>10</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23">
+        <v>116008.2</v>
+      </c>
+      <c r="AA23">
+        <v>78719.85000000001</v>
+      </c>
+      <c r="AB23">
+        <v>82863</v>
+      </c>
+      <c r="AC23">
+        <v>290020.5</v>
+      </c>
+      <c r="AD23">
+        <v>165726</v>
+      </c>
+      <c r="AE23">
+        <v>207157.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F24">
         <v>227</v>
@@ -2107,19 +2755,37 @@
       <c r="Y24">
         <v>32</v>
       </c>
+      <c r="Z24">
+        <v>85876.48392857143</v>
+      </c>
+      <c r="AA24">
+        <v>151268.3475</v>
+      </c>
+      <c r="AB24">
+        <v>45221.91321428573</v>
+      </c>
+      <c r="AC24">
+        <v>140147.1428571429</v>
+      </c>
+      <c r="AD24">
+        <v>214187.1428571428</v>
+      </c>
+      <c r="AE24">
+        <v>84617.14285714287</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0.3880156250000001</v>
@@ -2166,19 +2832,37 @@
       <c r="S25">
         <v>131836.5306122449</v>
       </c>
+      <c r="Z25">
+        <v>634960</v>
+      </c>
+      <c r="AA25">
+        <v>2436619</v>
+      </c>
+      <c r="AB25">
+        <v>605254</v>
+      </c>
+      <c r="AC25">
+        <v>952440</v>
+      </c>
+      <c r="AD25">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE25">
+        <v>907881</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>0.3079999999999997</v>
@@ -2208,10 +2892,16 @@
         <v>0.4755244755244755</v>
       </c>
       <c r="N26">
-        <v>196056.4944642857</v>
+        <v>109985.31225</v>
       </c>
       <c r="O26">
-        <v>240997.9285714285</v>
+        <v>134640</v>
+      </c>
+      <c r="P26">
+        <v>44.85825</v>
+      </c>
+      <c r="Q26">
+        <v>55</v>
       </c>
       <c r="R26">
         <v>6.732</v>
@@ -2219,22 +2909,58 @@
       <c r="S26">
         <v>100980</v>
       </c>
+      <c r="T26">
+        <v>15</v>
+      </c>
+      <c r="U26">
+        <v>15</v>
+      </c>
+      <c r="V26">
+        <v>15</v>
+      </c>
+      <c r="W26">
+        <v>15</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <v>4488</v>
+      </c>
+      <c r="AA26">
+        <v>2917.2</v>
+      </c>
+      <c r="AB26">
+        <v>4628.25</v>
+      </c>
+      <c r="AC26">
+        <v>11781</v>
+      </c>
+      <c r="AD26">
+        <v>6732</v>
+      </c>
+      <c r="AE26">
+        <v>8415</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F27">
         <v>463</v>
@@ -2296,19 +3022,37 @@
       <c r="Y27">
         <v>38</v>
       </c>
+      <c r="Z27">
+        <v>155272.8595714285</v>
+      </c>
+      <c r="AA27">
+        <v>128152.4033571428</v>
+      </c>
+      <c r="AB27">
+        <v>51734.41698214287</v>
+      </c>
+      <c r="AC27">
+        <v>224619.4285714285</v>
+      </c>
+      <c r="AD27">
+        <v>180163.4999999999</v>
+      </c>
+      <c r="AE27">
+        <v>88911.85714285716</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E28">
         <v>2.195</v>
@@ -2355,19 +3099,37 @@
       <c r="S28">
         <v>207238.1632653061</v>
       </c>
+      <c r="Z28">
+        <v>634960</v>
+      </c>
+      <c r="AA28">
+        <v>2436619</v>
+      </c>
+      <c r="AB28">
+        <v>605254</v>
+      </c>
+      <c r="AC28">
+        <v>952440</v>
+      </c>
+      <c r="AD28">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE28">
+        <v>907881</v>
+      </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>0.3417999999999997</v>
@@ -2397,10 +3159,16 @@
         <v>0.5050505050505051</v>
       </c>
       <c r="N29">
-        <v>51339.68457142855</v>
+        <v>112403.29</v>
       </c>
       <c r="O29">
-        <v>68022.85714285713</v>
+        <v>137600</v>
+      </c>
+      <c r="P29">
+        <v>44.85825</v>
+      </c>
+      <c r="Q29">
+        <v>55</v>
       </c>
       <c r="R29">
         <v>6.306666666666667</v>
@@ -2408,22 +3176,58 @@
       <c r="S29">
         <v>94600</v>
       </c>
+      <c r="T29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>12</v>
+      </c>
+      <c r="V29">
+        <v>18</v>
+      </c>
+      <c r="W29">
+        <v>18</v>
+      </c>
+      <c r="X29">
+        <v>7</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <v>4586.666666666667</v>
+      </c>
+      <c r="AA29">
+        <v>2580</v>
+      </c>
+      <c r="AB29">
+        <v>1965.714285714286</v>
+      </c>
+      <c r="AC29">
+        <v>12040</v>
+      </c>
+      <c r="AD29">
+        <v>6880</v>
+      </c>
+      <c r="AE29">
+        <v>3440</v>
+      </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F30">
         <v>406</v>
@@ -2485,19 +3289,37 @@
       <c r="Y30">
         <v>25</v>
       </c>
+      <c r="Z30">
+        <v>65857.74628571427</v>
+      </c>
+      <c r="AA30">
+        <v>54135.70742857141</v>
+      </c>
+      <c r="AB30">
+        <v>16172.43428571429</v>
+      </c>
+      <c r="AC30">
+        <v>96365.71428571426</v>
+      </c>
+      <c r="AD30">
+        <v>75958.8571428571</v>
+      </c>
+      <c r="AE30">
+        <v>28342.85714285714</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>13.92916666666666</v>
@@ -2543,6 +3365,24 @@
       </c>
       <c r="S31">
         <v>82113.30612244896</v>
+      </c>
+      <c r="Z31">
+        <v>634960</v>
+      </c>
+      <c r="AA31">
+        <v>2436619</v>
+      </c>
+      <c r="AB31">
+        <v>605254</v>
+      </c>
+      <c r="AC31">
+        <v>952440</v>
+      </c>
+      <c r="AD31">
+        <v>3654928.5</v>
+      </c>
+      <c r="AE31">
+        <v>907881</v>
       </c>
     </row>
   </sheetData>
